--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Library/CloudStorage/OneDrive-Personal/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5B10B6-0EA7-D740-B85A-EF6700F4FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB6ADA-B35E-D541-A37A-E48FD5748D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="160" windowWidth="68500" windowHeight="27300" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
@@ -1322,10 +1322,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L110" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L110">
@@ -1662,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F49" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F91" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3612,7 +3608,7 @@
         <v>216</v>
       </c>
       <c r="J105" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K105" s="29" t="s">
         <v>31</v>
@@ -3632,7 +3628,7 @@
         <v>217</v>
       </c>
       <c r="J106" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="29" t="s">
         <v>31</v>
@@ -3652,7 +3648,7 @@
         <v>218</v>
       </c>
       <c r="J107" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>31</v>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Library/CloudStorage/OneDrive-Personal/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB6ADA-B35E-D541-A37A-E48FD5748D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A730C13-FF80-2340-9520-3A3582011BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="160" windowWidth="68500" windowHeight="27300" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="223">
   <si>
     <t>easy</t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve">create a sub grid to keep track of the max value </t>
   </si>
   <si>
-    <t>check for the sign, int overflow. Implement the number reversal logic by using ampersand</t>
-  </si>
-  <si>
     <t>reverse integer</t>
   </si>
   <si>
@@ -699,6 +696,15 @@
   </si>
   <si>
     <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Count digits</t>
+  </si>
+  <si>
+    <t>convert to string but iterate over each char as a digit</t>
+  </si>
+  <si>
+    <t>check for the sign, convert to string, reverse string, then convert to int. check for int overflow. Reassign sign if necessary`</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F91" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F39" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,22 +1685,22 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1779,13 +1785,13 @@
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -1799,13 +1805,13 @@
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -1845,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1859,13 +1865,13 @@
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1899,13 +1905,13 @@
     </row>
     <row r="20" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -1914,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -2019,13 +2025,13 @@
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2059,13 +2065,13 @@
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -2074,12 +2080,12 @@
         <v>12</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -2099,13 +2105,13 @@
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2114,18 +2120,18 @@
         <v>12</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -2134,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
@@ -2159,13 +2165,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
@@ -2174,18 +2180,18 @@
         <v>12</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2199,13 +2205,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2219,13 +2225,13 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -2234,18 +2240,18 @@
         <v>12</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -2279,13 +2285,13 @@
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -2294,18 +2300,18 @@
         <v>12</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -2319,13 +2325,13 @@
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
@@ -2339,13 +2345,13 @@
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
@@ -2359,13 +2365,13 @@
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -2379,13 +2385,13 @@
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -2399,13 +2405,13 @@
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J45" s="23">
         <v>0</v>
@@ -2419,13 +2425,13 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J46" s="23">
         <v>0</v>
@@ -2439,13 +2445,13 @@
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -2465,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J48" s="23">
         <v>0</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L48" s="24" t="s">
         <v>9</v>
@@ -2479,22 +2485,22 @@
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G49" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>68</v>
-      </c>
       <c r="J49" s="23">
         <v>0</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>9</v>
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>9</v>
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>9</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>9</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="J54" s="9">
         <v>0</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>9</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>0</v>
@@ -2611,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
@@ -2631,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>9</v>
@@ -2651,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>9</v>
@@ -2659,39 +2665,39 @@
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J58" s="23">
         <v>0</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>9</v>
@@ -2699,39 +2705,39 @@
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J61" s="9">
         <v>0</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>9</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J62" s="9">
         <v>0</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>9</v>
@@ -2759,39 +2765,39 @@
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>9</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>9</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>9</v>
@@ -2839,199 +2845,199 @@
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I67" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="14">
-        <v>0</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="L67" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>205</v>
-      </c>
       <c r="L68" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>207</v>
-      </c>
       <c r="J69" s="14">
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="H70" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>209</v>
-      </c>
       <c r="J70" s="29">
         <v>0</v>
       </c>
       <c r="K70" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G71" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="H71" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>211</v>
-      </c>
       <c r="J71" s="29">
         <v>0</v>
       </c>
       <c r="K71" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L72" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="J72" s="14">
-        <v>0</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13" t="s">
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L73" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="J73" s="14">
-        <v>0</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="J75" s="14">
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L76" s="15" t="s">
         <v>9</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L77" s="15" t="s">
         <v>9</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="J78" s="14">
         <v>0</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>9</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G79" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="J79" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L79" s="15" t="s">
         <v>9</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G80" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13" t="s">
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="J80" s="14">
-        <v>0</v>
-      </c>
-      <c r="K80" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="L80" s="15" t="s">
         <v>9</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G81" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H81" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="28" t="s">
+      <c r="J81" s="29">
+        <v>0</v>
+      </c>
+      <c r="K81" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="J81" s="29">
-        <v>0</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="L81" s="30" t="s">
         <v>9</v>
@@ -3139,59 +3145,59 @@
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G82" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H82" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="J82" s="14">
         <v>0</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>169</v>
-      </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L84" s="15" t="s">
         <v>9</v>
@@ -3199,39 +3205,39 @@
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I85" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="J85" s="14">
-        <v>0</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="L85" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L86" s="15" t="s">
         <v>9</v>
@@ -3239,39 +3245,39 @@
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G88" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L88" s="15" t="s">
         <v>9</v>
@@ -3279,19 +3285,19 @@
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G89" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H89" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J89" s="29">
         <v>0</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L89" s="30" t="s">
         <v>9</v>
@@ -3299,19 +3305,19 @@
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G90" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J90" s="14">
         <v>0</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L90" s="15" t="s">
         <v>9</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G91" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J91" s="14">
         <v>0</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>9</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L92" s="15" t="s">
         <v>9</v>
@@ -3359,19 +3365,19 @@
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H93" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="J93" s="14">
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>9</v>
@@ -3379,59 +3385,59 @@
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G94" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="H94" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="H95" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="J95" s="14">
         <v>0</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J96" s="14">
         <v>0</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L96" s="15" t="s">
         <v>9</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J97" s="14">
         <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>9</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G98" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H98" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I98" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J98" s="29">
+        <v>0</v>
+      </c>
+      <c r="K98" s="29" t="s">
         <v>213</v>
-      </c>
-      <c r="J98" s="29">
-        <v>0</v>
-      </c>
-      <c r="K98" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="L98" s="30" t="s">
         <v>9</v>
@@ -3479,13 +3485,13 @@
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G99" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H99" s="27" t="s">
-        <v>158</v>
-      </c>
       <c r="I99" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J99" s="29">
         <v>0</v>
@@ -3499,13 +3505,13 @@
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G100" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H100" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J100" s="29">
         <v>0</v>
@@ -3519,13 +3525,13 @@
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G101" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J101" s="14">
         <v>0</v>
@@ -3539,13 +3545,13 @@
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G102" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J102" s="14">
         <v>0</v>
@@ -3554,18 +3560,18 @@
         <v>31</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G103" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H103" s="27" t="s">
+      <c r="I103" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="J103" s="29">
         <v>0</v>
@@ -3582,10 +3588,10 @@
         <v>29</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J104" s="14">
         <v>0</v>
@@ -3599,13 +3605,13 @@
     </row>
     <row r="105" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G105" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="J105" s="29">
         <v>2</v>
@@ -3614,18 +3620,18 @@
         <v>31</v>
       </c>
       <c r="L105" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G106" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J106" s="29">
         <v>1</v>
@@ -3634,18 +3640,18 @@
         <v>31</v>
       </c>
       <c r="L106" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G107" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H107" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J107" s="29">
         <v>1</v>
@@ -3654,16 +3660,28 @@
         <v>31</v>
       </c>
       <c r="L107" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G108" s="26"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="30"/>
+      <c r="G108" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J108" s="29">
+        <v>0</v>
+      </c>
+      <c r="K108" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L108" s="30" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="109" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G109" s="26"/>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/Library/CloudStorage/OneDrive-Personal/Documents/SCHOOL/CODING/DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d34f119de7acea51/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A730C13-FF80-2340-9520-3A3582011BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B01EAFFF-C515-FE44-B1CA-72A77FC378FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
   <si>
     <t>easy</t>
   </si>
@@ -179,12 +179,6 @@
     <t>convert string, create a reversed temp string then compare with original</t>
   </si>
   <si>
-    <t>palindrome number</t>
-  </si>
-  <si>
-    <t>create temp reversed number compare with original number</t>
-  </si>
-  <si>
     <t>palindrome linked list</t>
   </si>
   <si>
@@ -705,13 +699,22 @@
   </si>
   <si>
     <t>check for the sign, convert to string, reverse string, then convert to int. check for int overflow. Reassign sign if necessary`</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>negatives can never be palindrome Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge sort </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,6 +749,16 @@
     <font>
       <sz val="12"/>
       <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -881,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -972,6 +985,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,10 +1357,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L110" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L110">
-    <sortCondition ref="K9:K110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
+    <sortCondition ref="K10:K111"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{EA5305E0-6338-0540-8106-3C232FACFE3A}" name="QUESTION" dataDxfId="5"/>
@@ -1664,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F39" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F86" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,22 +1718,22 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1805,13 +1838,13 @@
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -1851,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1865,13 +1898,13 @@
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1905,13 +1938,13 @@
     </row>
     <row r="20" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -1920,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
@@ -1951,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -1985,13 +2018,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -2025,13 +2058,13 @@
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2065,13 +2098,13 @@
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -2080,12 +2113,12 @@
         <v>12</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -2105,13 +2138,13 @@
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2120,18 +2153,18 @@
         <v>12</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -2140,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
@@ -2165,13 +2198,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
@@ -2180,18 +2213,18 @@
         <v>12</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2205,13 +2238,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2225,13 +2258,13 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -2240,18 +2273,18 @@
         <v>12</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -2285,13 +2318,13 @@
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -2300,18 +2333,18 @@
         <v>12</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -2325,13 +2358,13 @@
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
@@ -2345,13 +2378,13 @@
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
@@ -2365,13 +2398,13 @@
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -2385,13 +2418,13 @@
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -2405,13 +2438,13 @@
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J45" s="23">
         <v>0</v>
@@ -2425,13 +2458,13 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J46" s="23">
         <v>0</v>
@@ -2445,13 +2478,13 @@
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -2471,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J48" s="23">
         <v>0</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L48" s="24" t="s">
         <v>9</v>
@@ -2485,22 +2518,22 @@
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G49" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J49" s="23">
         <v>0</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
@@ -2517,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>9</v>
@@ -2537,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>9</v>
@@ -2557,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>9</v>
@@ -2565,19 +2598,19 @@
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>9</v>
@@ -2585,19 +2618,19 @@
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>9</v>
@@ -2605,7 +2638,7 @@
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>0</v>
@@ -2617,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
@@ -2637,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>9</v>
@@ -2657,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>9</v>
@@ -2665,39 +2698,39 @@
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J58" s="23">
         <v>0</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>9</v>
@@ -2705,39 +2738,39 @@
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J61" s="9">
         <v>0</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>9</v>
@@ -2745,19 +2778,19 @@
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J62" s="9">
         <v>0</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>9</v>
@@ -2765,39 +2798,39 @@
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>9</v>
@@ -2805,19 +2838,19 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>9</v>
@@ -2825,19 +2858,19 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>9</v>
@@ -2845,199 +2878,199 @@
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="L68" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J69" s="14">
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H70" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J70" s="29">
         <v>0</v>
       </c>
       <c r="K70" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G71" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J71" s="29">
         <v>0</v>
       </c>
       <c r="K71" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J72" s="14">
         <v>0</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L73" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J73" s="14">
-        <v>0</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J75" s="14">
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L76" s="15" t="s">
         <v>9</v>
@@ -3045,19 +3078,19 @@
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I77" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="J77" s="14">
-        <v>0</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="L77" s="15" t="s">
         <v>9</v>
@@ -3065,142 +3098,142 @@
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="J78" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="13" t="s">
+      <c r="G79" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J79" s="29">
+        <v>0</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L79" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G80" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="J79" s="14">
-        <v>1</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G80" s="11" t="s">
+      <c r="J80" s="35">
+        <v>0</v>
+      </c>
+      <c r="K80" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G81" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J80" s="14">
-        <v>0</v>
-      </c>
-      <c r="K80" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G81" s="26" t="s">
+      <c r="L81" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G82" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J82" s="29">
+        <v>0</v>
+      </c>
+      <c r="K82" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="J81" s="29">
-        <v>0</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="L81" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G82" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J82" s="14">
-        <v>0</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>65</v>
+      <c r="L82" s="30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
@@ -3208,136 +3241,136 @@
         <v>165</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G88" s="11" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G89" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H89" s="27" t="s">
+      <c r="G89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I89" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="J89" s="29">
-        <v>0</v>
-      </c>
-      <c r="K89" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="L89" s="30" t="s">
+      <c r="I89" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G90" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H90" s="12" t="s">
+      <c r="G90" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H90" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J90" s="14">
-        <v>0</v>
-      </c>
-      <c r="K90" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="L90" s="15" t="s">
+      <c r="I90" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J90" s="29">
+        <v>0</v>
+      </c>
+      <c r="K90" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L90" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G91" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J91" s="14">
         <v>0</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>9</v>
@@ -3345,19 +3378,19 @@
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L92" s="15" t="s">
         <v>9</v>
@@ -3365,19 +3398,19 @@
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J93" s="14">
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>9</v>
@@ -3385,119 +3418,119 @@
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G94" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J95" s="14">
-        <v>0</v>
-      </c>
-      <c r="K95" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="L95" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="J96" s="14">
         <v>0</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J97" s="14">
         <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G98" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="27" t="s">
+      <c r="G98" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I98" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="J98" s="29">
-        <v>0</v>
-      </c>
-      <c r="K98" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="L98" s="30" t="s">
+      <c r="I98" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L98" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G99" s="26" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J99" s="29">
         <v>0</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="L99" s="30" t="s">
         <v>9</v>
@@ -3505,13 +3538,13 @@
     </row>
     <row r="100" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G100" s="26" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J100" s="29">
         <v>0</v>
@@ -3524,34 +3557,34 @@
       </c>
     </row>
     <row r="101" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G101" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H101" s="12" t="s">
+      <c r="G101" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I101" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J101" s="14">
-        <v>0</v>
-      </c>
-      <c r="K101" s="14" t="s">
+      <c r="I101" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J101" s="29">
+        <v>0</v>
+      </c>
+      <c r="K101" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L101" s="15" t="s">
+      <c r="L101" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G102" s="11" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="J102" s="14">
         <v>0</v>
@@ -3560,136 +3593,148 @@
         <v>31</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J103" s="14">
+        <v>0</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G104" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H104" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H103" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J103" s="29">
-        <v>0</v>
-      </c>
-      <c r="K103" s="29" t="s">
+      <c r="J104" s="29">
+        <v>0</v>
+      </c>
+      <c r="K104" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L103" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G104" s="11" t="s">
+      <c r="L104" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H104" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J104" s="14">
-        <v>0</v>
-      </c>
-      <c r="K104" s="14" t="s">
+      <c r="H105" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J105" s="14">
+        <v>0</v>
+      </c>
+      <c r="K105" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L104" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="J105" s="29">
-        <v>2</v>
-      </c>
-      <c r="K105" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L105" s="30" t="s">
-        <v>65</v>
+      <c r="L105" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G106" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J106" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" s="29" t="s">
         <v>31</v>
       </c>
       <c r="L106" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G107" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H107" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J107" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>31</v>
       </c>
       <c r="L107" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G108" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H108" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I108" s="28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J108" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="29" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="L108" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G109" s="26"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="30"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="7:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J109" s="14">
+        <v>0</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="110" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G110" s="11"/>
@@ -3698,6 +3743,14 @@
       <c r="J110" s="14"/>
       <c r="K110" s="14"/>
       <c r="L110" s="15"/>
+    </row>
+    <row r="111" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="15"/>
     </row>
     <row r="112" spans="7:12" x14ac:dyDescent="0.2">
       <c r="J112" s="31"/>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -1698,7 +1698,7 @@
   <dimension ref="A9:L112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F86" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d34f119de7acea51/Documents/SCHOOL/CODING/DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B01EAFFF-C515-FE44-B1CA-72A77FC378FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9783686-5C06-9B4E-AAE5-0149577D7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="223">
   <si>
     <t>easy</t>
   </si>
@@ -260,12 +260,6 @@
     <t>largest element in array</t>
   </si>
   <si>
-    <t>sort array then return last index element</t>
-  </si>
-  <si>
-    <t>second largest</t>
-  </si>
-  <si>
     <t xml:space="preserve">keep track of both largest and sec_largest in the same loop </t>
   </si>
   <si>
@@ -708,6 +702,9 @@
   </si>
   <si>
     <t xml:space="preserve">Merge sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign most min number iterate over array to find the largest number compared to it </t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1196,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1229,13 +1233,6 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1357,12 +1354,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
     <sortCondition ref="K10:K111"/>
   </sortState>
@@ -1697,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F86" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1708,9 +1701,9 @@
     <col min="7" max="7" width="45.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="93.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
     <col min="14" max="28" width="12" style="3" customWidth="1"/>
     <col min="29" max="16384" width="10.83203125" style="3"/>
@@ -1718,22 +1711,22 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1838,13 +1831,13 @@
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -1884,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1898,13 +1891,13 @@
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1937,17 +1930,17 @@
       </c>
     </row>
     <row r="20" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="6" t="s">
-        <v>75</v>
+      <c r="G20" s="6">
+        <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>12</v>
@@ -1984,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -2018,13 +2011,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -2058,13 +2051,13 @@
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2098,13 +2091,13 @@
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -2118,7 +2111,7 @@
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -2138,13 +2131,13 @@
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2164,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="J31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>12</v>
@@ -2198,13 +2191,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
@@ -2218,13 +2211,13 @@
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2238,13 +2231,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2278,13 +2271,13 @@
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -2318,13 +2311,13 @@
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="J39" s="9">
         <v>0</v>
@@ -2338,13 +2331,13 @@
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -2358,13 +2351,13 @@
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
@@ -2378,13 +2371,13 @@
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
@@ -2398,13 +2391,13 @@
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -2418,13 +2411,13 @@
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -2438,13 +2431,13 @@
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J45" s="23">
         <v>0</v>
@@ -2458,13 +2451,13 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J46" s="23">
         <v>0</v>
@@ -2478,13 +2471,13 @@
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -2504,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J48" s="23">
         <v>0</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L48" s="24" t="s">
         <v>9</v>
@@ -2530,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L49" s="24" t="s">
         <v>63</v>
@@ -2550,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>9</v>
@@ -2570,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>9</v>
@@ -2590,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>9</v>
@@ -2598,19 +2591,19 @@
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>9</v>
@@ -2618,19 +2611,19 @@
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>9</v>
@@ -2650,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>63</v>
@@ -2670,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>9</v>
@@ -2690,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>9</v>
@@ -2698,19 +2691,19 @@
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J58" s="23">
         <v>0</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L58" s="24" t="s">
         <v>63</v>
@@ -2718,19 +2711,19 @@
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>9</v>
@@ -2738,19 +2731,19 @@
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>63</v>
@@ -2758,19 +2751,19 @@
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J61" s="9">
         <v>0</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>9</v>
@@ -2778,19 +2771,19 @@
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J62" s="9">
         <v>0</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>9</v>
@@ -2798,19 +2791,19 @@
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>63</v>
@@ -2818,19 +2811,19 @@
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>9</v>
@@ -2838,19 +2831,19 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>9</v>
@@ -2858,19 +2851,19 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>9</v>
@@ -2878,19 +2871,19 @@
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L67" s="15" t="s">
         <v>63</v>
@@ -2898,19 +2891,19 @@
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="L68" s="15" t="s">
         <v>63</v>
@@ -2918,19 +2911,19 @@
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J69" s="14">
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L69" s="15" t="s">
         <v>63</v>
@@ -2938,19 +2931,19 @@
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H70" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J70" s="29">
         <v>0</v>
       </c>
       <c r="K70" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L70" s="30" t="s">
         <v>63</v>
@@ -2958,19 +2951,19 @@
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G71" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J71" s="29">
         <v>0</v>
       </c>
       <c r="K71" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L71" s="30" t="s">
         <v>63</v>
@@ -2978,7 +2971,7 @@
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>0</v>
@@ -3018,13 +3011,13 @@
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
@@ -3104,13 +3097,13 @@
         <v>30</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J78" s="14">
         <v>1</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>9</v>
@@ -3118,19 +3111,19 @@
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G79" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J79" s="29">
         <v>0</v>
       </c>
       <c r="K79" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L79" s="30" t="s">
         <v>63</v>
@@ -3138,19 +3131,19 @@
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G80" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H80" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J80" s="35">
         <v>0</v>
       </c>
       <c r="K80" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L80" s="36" t="s">
         <v>9</v>
@@ -3178,19 +3171,19 @@
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G82" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J82" s="29">
+        <v>0</v>
+      </c>
+      <c r="K82" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="J82" s="29">
-        <v>0</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="L82" s="30" t="s">
         <v>9</v>
@@ -3198,19 +3191,19 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L83" s="15" t="s">
         <v>63</v>
@@ -3218,19 +3211,19 @@
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L84" s="15" t="s">
         <v>63</v>
@@ -3238,19 +3231,19 @@
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L85" s="15" t="s">
         <v>9</v>
@@ -3258,39 +3251,39 @@
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>9</v>
@@ -3298,19 +3291,19 @@
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G88" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L88" s="15" t="s">
         <v>63</v>
@@ -3318,19 +3311,19 @@
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G89" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J89" s="14">
         <v>0</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L89" s="15" t="s">
         <v>9</v>
@@ -3338,19 +3331,19 @@
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G90" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H90" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J90" s="29">
         <v>0</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L90" s="30" t="s">
         <v>9</v>
@@ -3358,19 +3351,19 @@
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G91" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J91" s="14">
         <v>0</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>9</v>
@@ -3378,19 +3371,19 @@
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L92" s="15" t="s">
         <v>9</v>
@@ -3398,19 +3391,19 @@
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J93" s="14">
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>9</v>
@@ -3418,19 +3411,19 @@
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G94" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L94" s="15" t="s">
         <v>9</v>
@@ -3438,19 +3431,19 @@
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J95" s="14">
         <v>0</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L95" s="15" t="s">
         <v>63</v>
@@ -3458,93 +3451,93 @@
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="J96" s="14">
-        <v>0</v>
-      </c>
-      <c r="K96" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="L96" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J97" s="14">
         <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G98" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J98" s="14">
         <v>0</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L98" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G99" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H99" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J99" s="29">
         <v>0</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L99" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G100" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J100" s="29">
         <v>0</v>
@@ -3556,15 +3549,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G101" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H101" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J101" s="29">
         <v>0</v>
@@ -3576,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G102" s="11" t="s">
         <v>59</v>
       </c>
@@ -3596,15 +3589,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G103" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J103" s="14">
         <v>0</v>
@@ -3616,7 +3609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G104" s="26" t="s">
         <v>56</v>
       </c>
@@ -3627,7 +3620,7 @@
         <v>58</v>
       </c>
       <c r="J104" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="29" t="s">
         <v>31</v>
@@ -3636,7 +3629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G105" s="11" t="s">
         <v>29</v>
       </c>
@@ -3656,69 +3649,72 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="26" t="s">
+    <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="37"/>
+      <c r="G106" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J106" s="35">
+        <v>2</v>
+      </c>
+      <c r="K106" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F107" s="37"/>
+      <c r="G107" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="H106" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="28" t="s">
+      <c r="J107" s="35">
+        <v>3</v>
+      </c>
+      <c r="K107" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F108" s="37"/>
+      <c r="G108" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="J106" s="29">
+      <c r="J108" s="35">
         <v>2</v>
       </c>
-      <c r="K106" s="29" t="s">
+      <c r="K108" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L106" s="30" t="s">
+      <c r="L108" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G107" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J107" s="29">
-        <v>2</v>
-      </c>
-      <c r="K107" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L107" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G108" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="J108" s="29">
-        <v>1</v>
-      </c>
-      <c r="K108" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L108" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="7:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G109" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>30</v>
@@ -3727,7 +3723,7 @@
         <v>66</v>
       </c>
       <c r="J109" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>31</v>
@@ -3736,7 +3732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
       <c r="I110" s="13"/>
@@ -3744,7 +3740,7 @@
       <c r="K110" s="14"/>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
       <c r="I111" s="13"/>
@@ -3752,7 +3748,7 @@
       <c r="K111" s="14"/>
       <c r="L111" s="15"/>
     </row>
-    <row r="112" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:12" x14ac:dyDescent="0.2">
       <c r="J112" s="31"/>
     </row>
   </sheetData>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9783686-5C06-9B4E-AAE5-0149577D7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1545A7B2-A281-244D-9B31-F0552D2048BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
   <si>
     <t>easy</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t xml:space="preserve">assign most min number iterate over array to find the largest number compared to it </t>
+  </si>
+  <si>
+    <t>Second largest</t>
   </si>
 </sst>
 </file>
@@ -1196,13 +1199,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1233,6 +1229,13 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1355,7 +1358,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
     <sortCondition ref="K10:K111"/>
   </sortState>
@@ -1690,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F93" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1929,23 +1932,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
+    <row r="20" spans="7:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="23">
+        <v>2</v>
+      </c>
+      <c r="K20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="24" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3682,7 +3685,7 @@
         <v>212</v>
       </c>
       <c r="J107" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K107" s="35" t="s">
         <v>31</v>
@@ -3723,7 +3726,7 @@
         <v>66</v>
       </c>
       <c r="J109" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>31</v>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1545A7B2-A281-244D-9B31-F0552D2048BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CC9A7-68B2-0247-8E65-99C5403942BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F93" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F41" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="J20" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>12</v>
@@ -3706,7 +3706,7 @@
         <v>213</v>
       </c>
       <c r="J108" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K108" s="35" t="s">
         <v>31</v>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CC9A7-68B2-0247-8E65-99C5403942BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ECF9A-CEC4-5C46-9462-62F9B593502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>single number</t>
   </si>
   <si>
-    <t>using the XOR logic to find the element that appears once</t>
-  </si>
-  <si>
     <t>largest local values in a matrix</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t xml:space="preserve">max consecutive ones </t>
   </si>
   <si>
-    <t xml:space="preserve">count the continuous sequence of ones and return the biggest squence </t>
-  </si>
-  <si>
     <t>union of two sorted arrays</t>
   </si>
   <si>
@@ -708,6 +702,12 @@
   </si>
   <si>
     <t>Second largest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doable with use of map or dictionary. Using XOR is the most effiecient solution tho </t>
+  </si>
+  <si>
+    <t>keep counter of consecutive ones, reset counter to zero on encounter of a zero</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F41" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F20" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,22 +1714,22 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1814,13 +1814,13 @@
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -1834,16 +1834,16 @@
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>12</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="16" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="20" spans="7:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="23">
         <v>3</v>
@@ -1949,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -2109,12 +2109,12 @@
         <v>12</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
@@ -2134,13 +2134,13 @@
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2149,18 +2149,18 @@
         <v>12</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
@@ -2194,13 +2194,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
@@ -2209,18 +2209,18 @@
         <v>12</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -2269,18 +2269,18 @@
         <v>12</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="J38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>12</v>
@@ -2314,33 +2314,33 @@
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="J39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J41" s="9">
         <v>0</v>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G42" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="9">
         <v>0</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J45" s="23">
         <v>0</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J46" s="23">
         <v>0</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J48" s="23">
         <v>0</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L48" s="24" t="s">
         <v>9</v>
@@ -2514,22 +2514,22 @@
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G49" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="J49" s="23">
         <v>0</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>9</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>9</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>9</v>
@@ -2594,19 +2594,19 @@
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>9</v>
@@ -2614,19 +2614,19 @@
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>9</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>9</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>9</v>
@@ -2694,39 +2694,39 @@
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J58" s="23">
         <v>0</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>9</v>
@@ -2734,39 +2734,39 @@
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J61" s="9">
         <v>0</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>9</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>9</v>
@@ -2794,39 +2794,39 @@
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>9</v>
@@ -2834,19 +2834,19 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>9</v>
@@ -2854,19 +2854,19 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>9</v>
@@ -2874,199 +2874,199 @@
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I67" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J67" s="14">
-        <v>0</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="L67" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="L68" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J69" s="14">
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H70" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J70" s="29">
         <v>0</v>
       </c>
       <c r="K70" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L70" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G71" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J71" s="29">
         <v>0</v>
       </c>
       <c r="K71" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L71" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="J72" s="14">
-        <v>0</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13" t="s">
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="J73" s="14">
-        <v>0</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="J75" s="14">
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L76" s="15" t="s">
         <v>9</v>
@@ -3074,19 +3074,19 @@
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L77" s="15" t="s">
         <v>9</v>
@@ -3094,19 +3094,19 @@
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J78" s="14">
         <v>1</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>9</v>
@@ -3114,39 +3114,39 @@
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G79" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J79" s="29">
         <v>0</v>
       </c>
       <c r="K79" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L79" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G80" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H80" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J80" s="35">
         <v>0</v>
       </c>
       <c r="K80" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L80" s="36" t="s">
         <v>9</v>
@@ -3154,19 +3154,19 @@
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G81" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="s">
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="J81" s="14">
-        <v>0</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="L81" s="15" t="s">
         <v>9</v>
@@ -3174,19 +3174,19 @@
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G82" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="29">
+        <v>0</v>
+      </c>
+      <c r="K82" s="29" t="s">
         <v>156</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="J82" s="29">
-        <v>0</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>158</v>
       </c>
       <c r="L82" s="30" t="s">
         <v>9</v>
@@ -3194,59 +3194,59 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L85" s="15" t="s">
         <v>9</v>
@@ -3254,39 +3254,39 @@
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>9</v>
@@ -3294,39 +3294,39 @@
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G88" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G89" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J89" s="14">
         <v>0</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L89" s="15" t="s">
         <v>9</v>
@@ -3334,19 +3334,19 @@
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G90" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H90" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J90" s="29">
         <v>0</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L90" s="30" t="s">
         <v>9</v>
@@ -3354,19 +3354,19 @@
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G91" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J91" s="14">
         <v>0</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>9</v>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L92" s="15" t="s">
         <v>9</v>
@@ -3394,19 +3394,19 @@
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J93" s="14">
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>9</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G94" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L94" s="15" t="s">
         <v>9</v>
@@ -3434,59 +3434,59 @@
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J95" s="14">
         <v>0</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="J96" s="14">
-        <v>0</v>
-      </c>
-      <c r="K96" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="L96" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J97" s="14">
         <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>9</v>
@@ -3494,19 +3494,19 @@
     </row>
     <row r="98" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G98" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J98" s="14">
         <v>0</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L98" s="15" t="s">
         <v>9</v>
@@ -3514,19 +3514,19 @@
     </row>
     <row r="99" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G99" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H99" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J99" s="29">
         <v>0</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L99" s="30" t="s">
         <v>9</v>
@@ -3534,13 +3534,13 @@
     </row>
     <row r="100" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G100" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J100" s="29">
         <v>0</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="101" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G101" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H101" s="27" t="s">
         <v>30</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J101" s="29">
         <v>0</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="102" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G102" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J102" s="14">
         <v>0</v>
@@ -3594,13 +3594,13 @@
     </row>
     <row r="103" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G103" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J103" s="14">
         <v>0</v>
@@ -3609,18 +3609,18 @@
         <v>31</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G104" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H104" s="27" t="s">
+      <c r="I104" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="J104" s="29">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>29</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J105" s="14">
         <v>0</v>
@@ -3655,13 +3655,13 @@
     <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F106" s="37"/>
       <c r="G106" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H106" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J106" s="35">
         <v>2</v>
@@ -3670,19 +3670,19 @@
         <v>31</v>
       </c>
       <c r="L106" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F107" s="37"/>
       <c r="G107" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H107" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J107" s="35">
         <v>4</v>
@@ -3691,19 +3691,19 @@
         <v>31</v>
       </c>
       <c r="L107" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F108" s="37"/>
       <c r="G108" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H108" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J108" s="35">
         <v>3</v>
@@ -3712,18 +3712,18 @@
         <v>31</v>
       </c>
       <c r="L108" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="6:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G109" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J109" s="14">
         <v>2</v>
@@ -3732,7 +3732,7 @@
         <v>31</v>
       </c>
       <c r="L109" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="6:12" x14ac:dyDescent="0.2">

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175ECF9A-CEC4-5C46-9462-62F9B593502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A758E580-BF07-9244-8305-C1B4F94613CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">reverse the string, remove zeros then re-reverse string </t>
   </si>
   <si>
-    <t>use hashmap. Check for duplicate. Return if duplicate</t>
-  </si>
-  <si>
     <t>leetcode</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>valid anagram</t>
   </si>
   <si>
-    <t>sort both strings if they have the same length, then compare each char</t>
-  </si>
-  <si>
     <t>find minimum operations to make all elements divisible by three</t>
   </si>
   <si>
@@ -269,18 +263,12 @@
     <t>remove duplicates from a sorted array</t>
   </si>
   <si>
-    <t>use two pointer; one to track the last duplicate seen and the other to shift/copy over the element</t>
-  </si>
-  <si>
     <t>rotate array</t>
   </si>
   <si>
     <t>reverse the array at specific positions</t>
   </si>
   <si>
-    <t xml:space="preserve">move zeros </t>
-  </si>
-  <si>
     <t xml:space="preserve">track last index of last seen zero, swap with non-zero element </t>
   </si>
   <si>
@@ -708,6 +696,18 @@
   </si>
   <si>
     <t>keep counter of consecutive ones, reset counter to zero on encounter of a zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move zeroes </t>
+  </si>
+  <si>
+    <t>keep track index of last seen unique element. Swap with the next seen non- duplicate element</t>
+  </si>
+  <si>
+    <t>use hashmap. Check for duplicate. Return if duplicate - can also use set</t>
+  </si>
+  <si>
+    <t>sort both strings if they have the same length, then compare each char. Use list of 26 Zeroes</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1360,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
-    <sortCondition ref="K10:K111"/>
+    <sortCondition ref="J9:J111"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{EA5305E0-6338-0540-8106-3C232FACFE3A}" name="QUESTION" dataDxfId="5"/>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F20" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F10" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,442 +1714,442 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="J15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G19" s="6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="7:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="23">
+      <c r="G20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>62</v>
+      <c r="H20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G21" s="6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J21" s="9">
         <v>0</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G22" s="6" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G23" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J23" s="9">
         <v>0</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G25" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J25" s="9">
         <v>0</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G27" s="6" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G28" s="6" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
@@ -2160,1579 +2160,1579 @@
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="J31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G32" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G37" s="6" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="J38" s="9">
-        <v>1</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>9</v>
+      <c r="G38" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>62</v>
+      <c r="G39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G40" s="6" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G41" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>9</v>
+      <c r="G41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>9</v>
+      <c r="G42" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J45" s="23">
-        <v>0</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>9</v>
+      <c r="G45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G46" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>9</v>
+      <c r="G46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G48" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>9</v>
+      <c r="G48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G49" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="23">
-        <v>0</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>62</v>
+      <c r="G49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="9">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>9</v>
+      <c r="G50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G51" s="6" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J51" s="9">
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G52" s="6" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="J52" s="9">
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J54" s="9">
         <v>0</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="J55" s="9">
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G56" s="6" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="J56" s="9">
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G57" s="6" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J57" s="9">
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J58" s="23">
-        <v>0</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>62</v>
+      <c r="G58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="J59" s="9">
         <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G60" s="6" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="J60" s="9">
         <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>9</v>
+      <c r="G61" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="23">
+        <v>0</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G62" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J62" s="9">
-        <v>1</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>9</v>
+      <c r="G62" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J62" s="23">
+        <v>0</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="J68" s="14">
         <v>0</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G69" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J69" s="14">
-        <v>0</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="L69" s="15" t="s">
-        <v>62</v>
+      <c r="G69" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" s="29">
+        <v>0</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="L69" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G70" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="J70" s="29">
-        <v>0</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="L70" s="30" t="s">
-        <v>62</v>
+      <c r="G70" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" s="35">
+        <v>0</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G71" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="J71" s="29">
-        <v>0</v>
-      </c>
-      <c r="K71" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="L71" s="30" t="s">
-        <v>62</v>
+      <c r="G71" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G72" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J72" s="14">
-        <v>0</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>68</v>
+      <c r="G72" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="29">
+        <v>0</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L72" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="J73" s="14">
         <v>0</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="J75" s="14">
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="J78" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="J79" s="29">
-        <v>0</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="L79" s="30" t="s">
-        <v>62</v>
+      <c r="G79" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G80" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="H80" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J80" s="35">
-        <v>0</v>
-      </c>
-      <c r="K80" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>9</v>
+      <c r="G80" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" s="29">
+        <v>0</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L80" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G81" s="11" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="J81" s="14">
         <v>0</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G82" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="J82" s="29">
-        <v>0</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>9</v>
+      <c r="G82" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G88" s="11" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G89" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J89" s="14">
-        <v>0</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L89" s="15" t="s">
-        <v>9</v>
+      <c r="G89" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J89" s="29">
+        <v>0</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="L89" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G90" s="26" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J90" s="29">
         <v>0</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="L90" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G91" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J91" s="14">
-        <v>0</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>9</v>
+      <c r="G91" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" s="29">
+        <v>0</v>
+      </c>
+      <c r="K91" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="J93" s="14">
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G94" s="11" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="J94" s="14">
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="J95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="J96" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="J97" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G98" s="11" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J98" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G99" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="J99" s="29">
-        <v>0</v>
-      </c>
-      <c r="K99" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="L99" s="30" t="s">
-        <v>9</v>
+      <c r="G99" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J99" s="14">
+        <v>1</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G100" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J100" s="29">
-        <v>0</v>
-      </c>
-      <c r="K100" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L100" s="30" t="s">
-        <v>9</v>
+      <c r="G100" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" s="14">
+        <v>1</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G101" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J101" s="29">
-        <v>0</v>
-      </c>
-      <c r="K101" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="30" t="s">
-        <v>9</v>
+      <c r="G101" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J101" s="14">
+        <v>1</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G102" s="11" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J102" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G103" s="11" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="J103" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G104" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H104" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="J104" s="29">
         <v>1</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L104" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J105" s="35">
+        <v>2</v>
+      </c>
+      <c r="K105" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J105" s="14">
-        <v>0</v>
-      </c>
-      <c r="K105" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>9</v>
+      <c r="L105" s="36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F106" s="37"/>
-      <c r="G106" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="H106" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="J106" s="35">
+      <c r="G106" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J106" s="14">
         <v>2</v>
       </c>
-      <c r="K106" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L106" s="36" t="s">
-        <v>62</v>
+      <c r="K106" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F107" s="37"/>
-      <c r="G107" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="H107" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="J107" s="35">
-        <v>4</v>
-      </c>
-      <c r="K107" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L107" s="36" t="s">
-        <v>62</v>
+      <c r="G107" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J107" s="29">
+        <v>3</v>
+      </c>
+      <c r="K107" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F108" s="37"/>
       <c r="G108" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H108" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J108" s="35">
         <v>3</v>
       </c>
       <c r="K108" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L108" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="6:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G109" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J109" s="14">
-        <v>2</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L109" s="15" t="s">
-        <v>62</v>
+      <c r="G109" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J109" s="35">
+        <v>4</v>
+      </c>
+      <c r="K109" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="6:12" x14ac:dyDescent="0.2">

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A758E580-BF07-9244-8305-C1B4F94613CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F702D-B0CF-DE40-B8E9-5AC187024DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27600" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="226">
   <si>
     <t>easy</t>
   </si>
@@ -347,9 +347,6 @@
     <t xml:space="preserve">must be done in linear time complexity </t>
   </si>
   <si>
-    <t>compute diff. Search for an occurance of diff in hash map</t>
-  </si>
-  <si>
     <t>Insert a node at a specific position in a linked list</t>
   </si>
   <si>
@@ -708,6 +705,15 @@
   </si>
   <si>
     <t>sort both strings if they have the same length, then compare each char. Use list of 26 Zeroes</t>
+  </si>
+  <si>
+    <t>compute diff. Search for an occurance of diff in hash map/ dictionary</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>iterate through every word. Finds its actual letter freq (anagrams). Store in dictionary based on letter freq</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
   <dimension ref="A9:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F10" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F21" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,10 +1726,10 @@
         <v>92</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>93</v>
@@ -1860,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -1874,13 +1880,13 @@
     </row>
     <row r="17" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1940,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -2014,13 +2020,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -2054,13 +2060,13 @@
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>0</v>
@@ -2114,33 +2120,33 @@
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="J29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2149,18 +2155,18 @@
         <v>11</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -2169,18 +2175,18 @@
         <v>11</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G32" s="6" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
@@ -2189,18 +2195,18 @@
         <v>11</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
@@ -2214,13 +2220,13 @@
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2234,13 +2240,13 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2254,13 +2260,13 @@
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J36" s="9">
         <v>0</v>
@@ -2273,34 +2279,34 @@
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G37" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="I37" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="23">
+        <v>0</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G38" s="20" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="J38" s="23">
         <v>0</v>
@@ -2313,100 +2319,100 @@
       </c>
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="23" t="s">
+      <c r="I39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="10" t="s">
+      <c r="G40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G41" s="20" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="J41" s="23">
         <v>0</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G42" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="23">
-        <v>0</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>60</v>
+      <c r="G42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>8</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G44" s="6" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="J44" s="9">
         <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>8</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J45" s="9">
         <v>0</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>8</v>
@@ -2454,27 +2460,27 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="6" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>0</v>
@@ -2486,167 +2492,167 @@
         <v>0</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G48" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J48" s="9">
         <v>0</v>
       </c>
       <c r="K48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G49" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G49" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G50" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="23">
-        <v>0</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>60</v>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G51" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J51" s="9">
         <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G52" s="6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J52" s="9">
         <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J54" s="9">
         <v>0</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>8</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G56" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J56" s="9">
         <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>8</v>
@@ -2674,39 +2680,39 @@
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G57" s="6" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J57" s="9">
         <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G58" s="6" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J58" s="9">
         <v>0</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>60</v>
@@ -2714,87 +2720,87 @@
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G59" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G60" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8" t="s">
+      <c r="G60" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J60" s="9">
-        <v>0</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L60" s="10" t="s">
+      <c r="H60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J60" s="23">
+        <v>0</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L60" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G61" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H61" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J61" s="23">
         <v>0</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L61" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G62" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="J62" s="23">
-        <v>0</v>
-      </c>
-      <c r="K62" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L62" s="24" t="s">
-        <v>60</v>
+      <c r="G62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>0</v>
@@ -2814,13 +2820,13 @@
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
@@ -2834,13 +2840,13 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
@@ -2854,13 +2860,13 @@
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="11" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J66" s="14">
         <v>0</v>
@@ -2869,144 +2875,144 @@
         <v>46</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L67" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G68" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>8</v>
+      <c r="G68" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J68" s="29">
+        <v>0</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G69" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J69" s="29">
-        <v>0</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="L69" s="30" t="s">
+      <c r="G69" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" s="35">
+        <v>0</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="14">
+        <v>0</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J71" s="29">
+        <v>0</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G72" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G70" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="J70" s="35">
-        <v>0</v>
-      </c>
-      <c r="K70" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="L70" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G71" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J71" s="14">
-        <v>0</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G72" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" s="29">
-        <v>0</v>
-      </c>
-      <c r="K72" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L72" s="30" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J73" s="14">
         <v>0</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L73" s="15" t="s">
         <v>60</v>
@@ -3014,159 +3020,159 @@
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I75" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L75" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="J75" s="14">
-        <v>0</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I76" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J76" s="14">
+        <v>0</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="J76" s="14">
-        <v>0</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="L76" s="15" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I78" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="J78" s="14">
-        <v>0</v>
-      </c>
-      <c r="K78" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L78" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I79" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J79" s="14">
-        <v>0</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L79" s="15" t="s">
+      <c r="I79" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J79" s="29">
+        <v>0</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L79" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G80" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H80" s="27" t="s">
+      <c r="G80" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I80" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="J80" s="29">
-        <v>0</v>
-      </c>
-      <c r="K80" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L80" s="30" t="s">
+      <c r="I80" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G81" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J81" s="14">
         <v>0</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L81" s="15" t="s">
         <v>8</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G82" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J82" s="14">
         <v>0</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>8</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L83" s="15" t="s">
         <v>8</v>
@@ -3214,39 +3220,39 @@
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L85" s="15" t="s">
         <v>60</v>
@@ -3254,79 +3260,79 @@
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G88" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H88" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I88" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="J88" s="14">
-        <v>0</v>
-      </c>
-      <c r="K88" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="L88" s="15" t="s">
+      <c r="I88" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J88" s="29">
+        <v>0</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L88" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G89" s="26" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="J89" s="29">
         <v>0</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="L89" s="30" t="s">
         <v>8</v>
@@ -3334,13 +3340,13 @@
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G90" s="26" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="J90" s="29">
         <v>0</v>
@@ -3353,34 +3359,34 @@
       </c>
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G91" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H91" s="27" t="s">
+      <c r="G91" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I91" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J91" s="29">
-        <v>0</v>
-      </c>
-      <c r="K91" s="29" t="s">
+      <c r="I91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0</v>
+      </c>
+      <c r="K91" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="L91" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="J92" s="14">
         <v>0</v>
@@ -3389,18 +3395,18 @@
         <v>29</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J93" s="14">
         <v>0</v>
@@ -3409,26 +3415,26 @@
         <v>29</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G94" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J94" s="14">
-        <v>0</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L94" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G94" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J94" s="29">
+        <v>2</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3440,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J95" s="14">
         <v>1</v>
@@ -3460,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J96" s="14">
         <v>1</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="97" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>0</v>
@@ -3500,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J98" s="14">
         <v>1</v>
@@ -3520,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J99" s="14">
         <v>1</v>
@@ -3552,23 +3558,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G101" s="11" t="s">
+    <row r="101" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="J101" s="14">
+      <c r="H101" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J101" s="29">
         <v>1</v>
       </c>
-      <c r="K101" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L101" s="15" t="s">
+      <c r="K101" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L101" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3580,13 +3586,13 @@
         <v>79</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J102" s="14">
         <v>1</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L102" s="15" t="s">
         <v>8</v>
@@ -3600,13 +3606,13 @@
         <v>28</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J103" s="14">
         <v>1</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L103" s="15" t="s">
         <v>8</v>
@@ -3623,7 +3629,7 @@
         <v>55</v>
       </c>
       <c r="J104" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K104" s="29" t="s">
         <v>29</v>
@@ -3634,13 +3640,13 @@
     </row>
     <row r="105" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G105" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="34" t="s">
-        <v>205</v>
       </c>
       <c r="J105" s="35">
         <v>2</v>
@@ -3655,7 +3661,7 @@
     <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F106" s="37"/>
       <c r="G106" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>28</v>
@@ -3676,7 +3682,7 @@
     <row r="107" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F107" s="37"/>
       <c r="G107" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H107" s="27" t="s">
         <v>0</v>
@@ -3697,13 +3703,13 @@
     <row r="108" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F108" s="37"/>
       <c r="G108" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H108" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J108" s="35">
         <v>3</v>
@@ -3717,13 +3723,13 @@
     </row>
     <row r="109" spans="6:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G109" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H109" s="33" t="s">
         <v>0</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J109" s="35">
         <v>4</v>
@@ -3736,12 +3742,24 @@
       </c>
     </row>
     <row r="110" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="15"/>
+      <c r="G110" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J110" s="14">
+        <v>0</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="111" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G111" s="11"/>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F702D-B0CF-DE40-B8E9-5AC187024DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22560C18-8914-184D-B25B-DBBE9F9989DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="231">
   <si>
     <t>easy</t>
   </si>
@@ -714,6 +714,21 @@
   </si>
   <si>
     <t>iterate through every word. Finds its actual letter freq (anagrams). Store in dictionary based on letter freq</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>use bucket sort. In reverse add most freq elements to result arr until result arr = k</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>in place sort, then use max function to find max difference btn consecutive elements. Optimized solution is bucket sort</t>
+  </si>
+  <si>
+    <t>array, sort</t>
   </si>
 </sst>
 </file>
@@ -900,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -986,9 +1001,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1376,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L116" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
     <sortCondition ref="J9:J111"/>
   </sortState>
@@ -1697,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
-  <dimension ref="A9:L112"/>
+  <dimension ref="A9:L116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F21" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F88" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2919,22 +2931,22 @@
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G69" s="32" t="s">
+      <c r="G69" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="H69" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="34" t="s">
+      <c r="H69" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J69" s="35">
-        <v>0</v>
-      </c>
-      <c r="K69" s="35" t="s">
+      <c r="J69" s="34">
+        <v>0</v>
+      </c>
+      <c r="K69" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="L69" s="36" t="s">
+      <c r="L69" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3639,27 +3651,27 @@
       </c>
     </row>
     <row r="105" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="32" t="s">
+      <c r="G105" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="H105" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="34" t="s">
+      <c r="H105" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="J105" s="35">
+      <c r="J105" s="34">
         <v>2</v>
       </c>
-      <c r="K105" s="35" t="s">
+      <c r="K105" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L105" s="36" t="s">
+      <c r="L105" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F106" s="37"/>
+      <c r="F106" s="36"/>
       <c r="G106" s="11" t="s">
         <v>214</v>
       </c>
@@ -3680,7 +3692,7 @@
       </c>
     </row>
     <row r="107" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F107" s="37"/>
+      <c r="F107" s="36"/>
       <c r="G107" s="26" t="s">
         <v>216</v>
       </c>
@@ -3701,76 +3713,137 @@
       </c>
     </row>
     <row r="108" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F108" s="37"/>
-      <c r="G108" s="32" t="s">
+      <c r="F108" s="36"/>
+      <c r="G108" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H108" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="34" t="s">
+      <c r="H108" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="J108" s="35">
+      <c r="J108" s="34">
         <v>3</v>
       </c>
-      <c r="K108" s="35" t="s">
+      <c r="K108" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L108" s="36" t="s">
+      <c r="L108" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="6:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G109" s="32" t="s">
+    <row r="109" spans="6:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H109" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="34" t="s">
+      <c r="H109" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="J109" s="35">
+      <c r="J109" s="34">
         <v>4</v>
       </c>
-      <c r="K109" s="35" t="s">
+      <c r="K109" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L109" s="36" t="s">
+      <c r="L109" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G110" s="11" t="s">
+    <row r="110" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H110" s="12" t="s">
+      <c r="H110" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="13" t="s">
+      <c r="I110" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="J110" s="14">
-        <v>0</v>
-      </c>
-      <c r="K110" s="14" t="s">
+      <c r="J110" s="29">
+        <v>1</v>
+      </c>
+      <c r="K110" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L110" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="15"/>
+      <c r="G111" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="J112" s="31"/>
+      <c r="G112" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J112" s="14">
+        <v>0</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="15"/>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="15"/>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="15"/>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dsa_log.xlsx
+++ b/dsa_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richa/OneDrive/Documents/SCHOOL/CODING/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22560C18-8914-184D-B25B-DBBE9F9989DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B36B0-56E6-BD4B-A42F-9D73D689F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="54420" windowHeight="26260" xr2:uid="{BEDA4785-54A3-8F4E-898D-AF93E9363723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="256">
   <si>
     <t>easy</t>
   </si>
@@ -179,9 +179,6 @@
     <t>linked list</t>
   </si>
   <si>
-    <t>linked list, stack</t>
-  </si>
-  <si>
     <t>reverse linked list</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t xml:space="preserve">sets to get rid of duplicates, then push the set elements in the vector </t>
   </si>
   <si>
-    <t>array, set</t>
-  </si>
-  <si>
     <t>missing number</t>
   </si>
   <si>
@@ -374,9 +368,6 @@
     <t>3 different approaches; sets, 2 additional vectors and the mf in-place BS solution</t>
   </si>
   <si>
-    <t>array, matrix</t>
-  </si>
-  <si>
     <t>rotate image</t>
   </si>
   <si>
@@ -416,9 +407,6 @@
     <t>expected sum vs actual sum aka (N * (N+1))/2</t>
   </si>
   <si>
-    <t>array, map</t>
-  </si>
-  <si>
     <t>assume the minumum freq required for a vaild element is 4, once two diff elements found return because 4&gt;3 *( can be achieved in O(1) space )*</t>
   </si>
   <si>
@@ -575,12 +563,6 @@
     <t>math</t>
   </si>
   <si>
-    <t>search, math</t>
-  </si>
-  <si>
-    <t>array, math</t>
-  </si>
-  <si>
     <t>find Nth root of M</t>
   </si>
   <si>
@@ -728,7 +710,100 @@
     <t>in place sort, then use max function to find max difference btn consecutive elements. Optimized solution is bucket sort</t>
   </si>
   <si>
-    <t>array, sort</t>
+    <t>Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>reverse iteration, use rightMax and newMax to update the values in the arr</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>use two reverse while loops - one to count all spaces and another to count the chars in the word seen</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>check the first char simultaneously, check for outer bounds and if char don’t match to return</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>use two pointers. Only increment point i on match always increment point j. check if I reached end</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>use 2 pointers ie slow and fast. Fast checks for not match, slow updates on not match. Fast keeps going regardless</t>
+  </si>
+  <si>
+    <t>use the first word as refrence, iterate through the rest of words. Return on first encounter of mismatch or out of range</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>use bidirectional hashmaps check match both ways. Return false if not match</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>use set, mark start then count consecutive, reset counter to find max</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>mark seen number neg based on observed index.. Append to list</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bidirectional mapping </t>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>ensure proper bounds checking and all flowers are placed</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>traverse the matrix</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use left and right pointer return when target met. Decrement/increment accordingly </t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>2 pointers, swap</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>2 pointers, validate right or left side on first encounter with mismatch</t>
+  </si>
+  <si>
+    <t>Find Greatest Common Divisor of Array</t>
+  </si>
+  <si>
+    <t>use euclids algorithms, recursively or iteratively</t>
+  </si>
+  <si>
+    <t>Greatest Common Divisor of Strings</t>
   </si>
 </sst>
 </file>
@@ -915,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1019,6 +1094,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,9 +1466,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L116" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L111">
-    <sortCondition ref="J9:J111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6374C534-ADCB-2B48-8495-3E0235A90001}" name="Table2" displayName="Table2" ref="G9:L129" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G10:L124">
+    <sortCondition ref="G10:G124"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{EA5305E0-6338-0540-8106-3C232FACFE3A}" name="QUESTION" dataDxfId="5"/>
@@ -1709,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B4FC1-FB0D-D846-BD25-3C3153F03FF8}">
-  <dimension ref="A9:L116"/>
+  <dimension ref="A9:L129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F88" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F81" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,53 +1822,53 @@
   <sheetData>
     <row r="9" spans="7:12" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="L9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="G10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="23">
+        <v>2</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -1792,13 +1882,13 @@
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G12" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -1811,34 +1901,34 @@
       </c>
     </row>
     <row r="13" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>8</v>
+      <c r="G13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="6" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -1847,18 +1937,18 @@
         <v>11</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -1871,74 +1961,74 @@
       </c>
     </row>
     <row r="16" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>8</v>
+      <c r="G16" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="G17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>8</v>
+      <c r="G18" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="40">
+        <v>4</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G19" s="6" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
@@ -1952,13 +2042,13 @@
     </row>
     <row r="20" spans="7:12" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -1967,38 +2057,38 @@
         <v>11</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G21" s="6" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="J21" s="9">
         <v>0</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G22" s="6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -2012,16 +2102,16 @@
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G23" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>11</v>
@@ -2031,74 +2121,74 @@
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="G24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>8</v>
+      <c r="G25" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G26" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G27" s="6" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
@@ -2111,54 +2201,54 @@
       </c>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>60</v>
+      <c r="G28" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G29" s="6" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="J29" s="9">
         <v>0</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -2172,59 +2262,59 @@
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G31" s="6" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G32" s="6" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G33" s="6" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="J33" s="9">
         <v>0</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>8</v>
@@ -2232,13 +2322,13 @@
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G34" s="6" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2252,399 +2342,399 @@
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G35" s="6" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G36" s="6" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G37" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G38" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="24" t="s">
+      <c r="I38" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="L40" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G42" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G40" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="J40" s="23">
-        <v>2</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G41" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G42" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L42" s="10" t="s">
+      <c r="I42" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G43" s="6" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="J43" s="9">
         <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="9">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="10" t="s">
+      <c r="G44" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J44" s="23">
+        <v>2</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G45" s="6" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="J45" s="9">
         <v>0</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G46" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="J46" s="9">
         <v>0</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G47" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="J47" s="9">
         <v>0</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>8</v>
+      <c r="G48" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="J48" s="40">
+        <v>3</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G49" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="23">
-        <v>0</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>60</v>
+      <c r="G49" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G50" s="6" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="J50" s="9">
         <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G51" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="G51" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J51" s="9">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>60</v>
+      <c r="I51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G52" s="6" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="J52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G53" s="6" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G54" s="6" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J54" s="9">
         <v>0</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>8</v>
@@ -2652,39 +2742,39 @@
     </row>
     <row r="55" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G55" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J55" s="9">
         <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G56" s="6" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="J56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>8</v>
@@ -2692,359 +2782,359 @@
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G57" s="6" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G58" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J58" s="23">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G59" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G58" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" s="9">
-        <v>0</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G59" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>60</v>
+      <c r="I59" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="23">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G60" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="J60" s="23">
-        <v>0</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="L60" s="24" t="s">
-        <v>60</v>
+      <c r="G60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="9">
+        <v>1</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G61" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="23">
-        <v>0</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="L61" s="24" t="s">
-        <v>60</v>
+      <c r="G61" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G62" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="J62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G63" s="6" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="J63" s="9">
         <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G64" s="6" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="J64" s="9">
         <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="6" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J65" s="9">
         <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G66" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66" s="14">
-        <v>0</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" s="15" t="s">
+      <c r="G66" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J66" s="29">
+        <v>0</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="J67" s="14">
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L67" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G68" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="J68" s="29">
-        <v>0</v>
-      </c>
-      <c r="K68" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L68" s="30" t="s">
-        <v>60</v>
+      <c r="G68" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68" s="14">
+        <v>2</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G69" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="H69" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J69" s="34">
-        <v>0</v>
-      </c>
-      <c r="K69" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="L69" s="35" t="s">
+      <c r="G69" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" s="11" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="J70" s="14">
         <v>0</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="L70" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G71" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J71" s="29">
-        <v>0</v>
-      </c>
-      <c r="K71" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="L71" s="30" t="s">
-        <v>8</v>
+      <c r="G71" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="J72" s="14">
         <v>0</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="J73" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="J74" s="14">
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L74" s="15" t="s">
         <v>8</v>
@@ -3052,159 +3142,159 @@
     </row>
     <row r="75" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="J75" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="J76" s="14">
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L76" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="7:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="J77" s="14">
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="J78" s="14">
         <v>0</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="J79" s="29">
-        <v>0</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="L79" s="30" t="s">
+      <c r="G79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G80" s="11" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="J80" s="14">
         <v>0</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="L80" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G81" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J81" s="14">
-        <v>0</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L81" s="15" t="s">
+      <c r="G81" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" s="34">
+        <v>0</v>
+      </c>
+      <c r="K81" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="L81" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G82" s="11" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="J82" s="14">
         <v>0</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>8</v>
@@ -3212,19 +3302,19 @@
     </row>
     <row r="83" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G83" s="11" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L83" s="15" t="s">
         <v>8</v>
@@ -3232,199 +3322,199 @@
     </row>
     <row r="84" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="J85" s="14">
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G87" s="11" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G88" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="J88" s="29">
-        <v>0</v>
-      </c>
-      <c r="K88" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="L88" s="30" t="s">
+      <c r="G88" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J88" s="14">
+        <v>1</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G89" s="26" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="J89" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L89" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G90" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J90" s="29">
-        <v>0</v>
-      </c>
-      <c r="K90" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L90" s="30" t="s">
+      <c r="G90" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G91" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J91" s="14">
-        <v>0</v>
-      </c>
-      <c r="K91" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L91" s="15" t="s">
+      <c r="G91" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J91" s="29">
+        <v>1</v>
+      </c>
+      <c r="K91" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G92" s="11" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="J92" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G93" s="11" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J93" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>8</v>
@@ -3432,19 +3522,19 @@
     </row>
     <row r="94" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G94" s="26" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="J94" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L94" s="30" t="s">
         <v>8</v>
@@ -3452,16 +3542,16 @@
     </row>
     <row r="95" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G95" s="11" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="J95" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>11</v>
@@ -3472,36 +3562,36 @@
     </row>
     <row r="96" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G96" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="J96" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G97" s="11" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="J97" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>11</v>
@@ -3512,16 +3602,16 @@
     </row>
     <row r="98" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G98" s="11" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="J98" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="14" t="s">
         <v>11</v>
@@ -3532,262 +3622,261 @@
     </row>
     <row r="99" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G99" s="11" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="J99" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L99" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G100" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J100" s="14">
-        <v>1</v>
-      </c>
-      <c r="K100" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L100" s="15" t="s">
-        <v>60</v>
+      <c r="G100" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="J100" s="29">
+        <v>0</v>
+      </c>
+      <c r="K100" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="J101" s="29">
-        <v>1</v>
-      </c>
-      <c r="K101" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="L101" s="30" t="s">
+      <c r="G101" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L101" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G102" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J102" s="14">
-        <v>1</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>8</v>
+      <c r="G102" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J102" s="29">
+        <v>3</v>
+      </c>
+      <c r="K102" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G103" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H103" s="12" t="s">
+      <c r="G103" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H103" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="J103" s="34">
+        <v>2</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G104" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H104" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I103" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J103" s="14">
-        <v>1</v>
-      </c>
-      <c r="K103" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L103" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G104" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J104" s="29">
-        <v>2</v>
-      </c>
-      <c r="K104" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L104" s="30" t="s">
+      <c r="I104" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J104" s="14">
+        <v>0</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="H105" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J105" s="34">
-        <v>2</v>
-      </c>
-      <c r="K105" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L105" s="35" t="s">
-        <v>60</v>
+      <c r="G105" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="14">
+        <v>0</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F106" s="36"/>
       <c r="G106" s="11" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="J106" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F107" s="36"/>
-      <c r="G107" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J107" s="29">
-        <v>3</v>
-      </c>
-      <c r="K107" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L107" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F108" s="36"/>
-      <c r="G108" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J108" s="34">
-        <v>3</v>
-      </c>
-      <c r="K108" s="34" t="s">
+      <c r="G107" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J108" s="29">
+        <v>1</v>
+      </c>
+      <c r="K108" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L108" s="35" t="s">
-        <v>60</v>
+      <c r="L108" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="6:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G109" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H109" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="J109" s="34">
-        <v>4</v>
-      </c>
-      <c r="K109" s="34" t="s">
+      <c r="G109" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J109" s="29">
+        <v>2</v>
+      </c>
+      <c r="K109" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L109" s="35" t="s">
-        <v>60</v>
+      <c r="L109" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="6:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="J110" s="29">
+      <c r="G110" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J110" s="14">
         <v>1</v>
       </c>
-      <c r="K110" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="L110" s="30" t="s">
-        <v>8</v>
+      <c r="K110" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G111" s="11" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="J111" s="14">
         <v>0</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="L111" s="15" t="s">
         <v>8</v>
@@ -3795,55 +3884,353 @@
     </row>
     <row r="112" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G112" s="11" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="H112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J112" s="14">
+        <v>0</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G113" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H113" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I112" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="J112" s="14">
-        <v>0</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L112" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="15"/>
+      <c r="I113" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J113" s="14">
+        <v>0</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="114" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G114" s="11"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="15"/>
+      <c r="G114" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
-      <c r="L115" s="15"/>
+      <c r="G115" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J115" s="29">
+        <v>3</v>
+      </c>
+      <c r="K115" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115" s="30" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="15"/>
+      <c r="G116" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J117" s="29">
+        <v>3</v>
+      </c>
+      <c r="K117" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" s="29">
+        <v>1</v>
+      </c>
+      <c r="K118" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G119" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H119" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J119" s="29">
+        <v>0</v>
+      </c>
+      <c r="K119" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G120" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J120" s="14">
+        <v>0</v>
+      </c>
+      <c r="K120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L120" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G121" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J121" s="14">
+        <v>0</v>
+      </c>
+      <c r="K121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G122" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G123" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J123" s="14">
+        <v>0</v>
+      </c>
+      <c r="K123" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="7:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H124" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J124" s="29">
+        <v>0</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G125" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J125" s="14">
+        <v>0</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G126" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G127" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J127" s="14">
+        <v>0</v>
+      </c>
+      <c r="K127" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G128" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J128" s="14">
+        <v>0</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G129" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
